--- a/public/data/download/MauC02ahd.xlsx
+++ b/public/data/download/MauC02ahd.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HuongVu\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\vhosts\tienluong.dev\public\data\download\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -149,12 +149,6 @@
     <t>06.030</t>
   </si>
   <si>
-    <t>UBND phường Phước Hải</t>
-  </si>
-  <si>
-    <t>Phòng Tài chính - Kế hoạch thành phố Nha Trang</t>
-  </si>
-  <si>
     <t>THÁNG 01 NĂM 2017</t>
   </si>
   <si>
@@ -168,6 +162,12 @@
   </si>
   <si>
     <t>Tổng cộng</t>
+  </si>
+  <si>
+    <t>Đơn vị chủ quản:</t>
+  </si>
+  <si>
+    <t>Đơn vị:</t>
   </si>
 </sst>
 </file>
@@ -176,7 +176,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="15">
     <font>
@@ -392,6 +392,30 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -416,33 +440,9 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="13" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -760,8 +760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -785,13 +785,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="16.5">
-      <c r="A1" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
+      <c r="A1" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
       <c r="F1" s="1"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -801,25 +801,25 @@
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
-      <c r="O1" s="14" t="s">
+      <c r="O1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
       <c r="U1" s="3"/>
       <c r="Z1" s="3"/>
     </row>
     <row r="2" spans="1:26" ht="16.5">
-      <c r="A2" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
+      <c r="A2" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
       <c r="F2" s="4"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -829,14 +829,14 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
-      <c r="O2" s="15" t="s">
+      <c r="O2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="29"/>
+      <c r="T2" s="29"/>
       <c r="U2" s="5"/>
       <c r="V2" s="5"/>
       <c r="W2" s="5"/>
@@ -859,23 +859,23 @@
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
-      <c r="O3" s="15" t="s">
+      <c r="O3" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
-      <c r="T3" s="15"/>
+      <c r="P3" s="29"/>
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="29"/>
+      <c r="T3" s="29"/>
       <c r="U3" s="5"/>
       <c r="Z3" s="5"/>
     </row>
     <row r="4" spans="1:26" ht="16.5">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
+      <c r="A4" s="30"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
       <c r="F4" s="6"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
@@ -899,28 +899,28 @@
       <c r="Z4" s="9"/>
     </row>
     <row r="5" spans="1:26" ht="21.75">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="26"/>
+      <c r="S5" s="26"/>
+      <c r="T5" s="26"/>
       <c r="U5" s="10"/>
       <c r="V5" s="10"/>
       <c r="W5" s="10"/>
@@ -929,28 +929,28 @@
       <c r="Z5" s="10"/>
     </row>
     <row r="6" spans="1:26" ht="20.25">
-      <c r="A6" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13"/>
-      <c r="S6" s="13"/>
-      <c r="T6" s="13"/>
+      <c r="A6" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+      <c r="R6" s="27"/>
+      <c r="S6" s="27"/>
+      <c r="T6" s="27"/>
       <c r="U6" s="11"/>
       <c r="V6" s="11"/>
       <c r="W6" s="11"/>
@@ -959,809 +959,814 @@
       <c r="Z6" s="11"/>
     </row>
     <row r="8" spans="1:26" ht="18.75">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="18" t="s">
+      <c r="F8" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18" t="s">
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="L8" s="18" t="s">
+      <c r="L8" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="M8" s="19" t="s">
+      <c r="M8" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="N8" s="18" t="s">
+      <c r="N8" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="O8" s="18"/>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="18"/>
-      <c r="R8" s="18"/>
-      <c r="S8" s="18" t="s">
+      <c r="O8" s="32"/>
+      <c r="P8" s="32"/>
+      <c r="Q8" s="32"/>
+      <c r="R8" s="32"/>
+      <c r="S8" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="T8" s="18" t="s">
+      <c r="T8" s="32" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="75">
-      <c r="A9" s="18"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="20" t="s">
+    <row r="9" spans="1:26" ht="56.25">
+      <c r="A9" s="32"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="G9" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="20" t="s">
+      <c r="H9" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="20" t="s">
+      <c r="I9" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="J9" s="20" t="s">
+      <c r="J9" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="20" t="s">
+      <c r="K9" s="32"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="O9" s="20" t="s">
+      <c r="O9" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="P9" s="20" t="s">
+      <c r="P9" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="Q9" s="20" t="s">
+      <c r="Q9" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="R9" s="22" t="s">
+      <c r="R9" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="S9" s="18"/>
-      <c r="T9" s="18"/>
-    </row>
-    <row r="10" spans="1:26" s="27" customFormat="1">
-      <c r="A10" s="23">
+      <c r="S9" s="32"/>
+      <c r="T9" s="32"/>
+    </row>
+    <row r="10" spans="1:26" s="18" customFormat="1">
+      <c r="A10" s="14">
         <v>1</v>
       </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23" t="s">
+      <c r="B10" s="14"/>
+      <c r="C10" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="24" t="s">
+      <c r="E10" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="23">
+      <c r="F10" s="14">
         <f>4</f>
         <v>4</v>
       </c>
-      <c r="G10" s="23">
+      <c r="G10" s="14">
         <f>0.5</f>
         <v>0.5</v>
       </c>
-      <c r="H10" s="23">
+      <c r="H10" s="14">
         <f>0.7</f>
         <v>0.7</v>
       </c>
-      <c r="I10" s="23">
+      <c r="I10" s="14">
         <f>F10+G10+H10</f>
         <v>5.2</v>
       </c>
-      <c r="J10" s="25">
+      <c r="J10" s="16">
         <f>I10*1300000</f>
         <v>6760000</v>
       </c>
-      <c r="K10" s="25">
+      <c r="K10" s="16">
         <f>500000</f>
         <v>500000</v>
       </c>
-      <c r="L10" s="25">
+      <c r="L10" s="16">
         <f>400000</f>
         <v>400000</v>
       </c>
-      <c r="M10" s="26">
+      <c r="M10" s="17">
         <f>J10-K10+L10</f>
         <v>6660000</v>
       </c>
-      <c r="N10" s="26">
+      <c r="N10" s="17">
         <f>M10*8/100</f>
         <v>532800</v>
       </c>
-      <c r="O10" s="23">
+      <c r="O10" s="14">
         <f>M10*1.5/100</f>
         <v>99900</v>
       </c>
-      <c r="P10" s="26">
+      <c r="P10" s="17">
         <f>M10/100</f>
         <v>66600</v>
       </c>
-      <c r="Q10" s="26">
+      <c r="Q10" s="17">
         <f>M10/100</f>
         <v>66600</v>
       </c>
-      <c r="R10" s="26">
+      <c r="R10" s="17">
         <f>N10+O10+P10+Q10</f>
         <v>765900</v>
       </c>
-      <c r="S10" s="26">
+      <c r="S10" s="17">
         <f>M10-R10</f>
         <v>5894100</v>
       </c>
-      <c r="T10" s="23"/>
-    </row>
-    <row r="11" spans="1:26" s="27" customFormat="1">
-      <c r="A11" s="23">
+      <c r="T10" s="14"/>
+    </row>
+    <row r="11" spans="1:26" s="18" customFormat="1">
+      <c r="A11" s="14">
         <v>2</v>
       </c>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23" t="s">
+      <c r="B11" s="14"/>
+      <c r="C11" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="F11" s="23">
+      <c r="E11" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="14">
         <f>3</f>
         <v>3</v>
       </c>
-      <c r="G11" s="23">
+      <c r="G11" s="14">
         <f>0.3</f>
         <v>0.3</v>
       </c>
-      <c r="H11" s="23">
+      <c r="H11" s="14">
         <f>0.5</f>
         <v>0.5</v>
       </c>
-      <c r="I11" s="23">
+      <c r="I11" s="14">
         <f t="shared" ref="I11:I19" si="0">F11+G11+H11</f>
         <v>3.8</v>
       </c>
-      <c r="J11" s="25">
+      <c r="J11" s="16">
         <f t="shared" ref="J11:J19" si="1">I11*1300000</f>
         <v>4940000</v>
       </c>
-      <c r="K11" s="25"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="26">
-        <f t="shared" ref="M11:M20" si="2">J11-K11+L11</f>
+      <c r="K11" s="16"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="17">
+        <f t="shared" ref="M11:M19" si="2">J11-K11+L11</f>
         <v>4940000</v>
       </c>
-      <c r="N11" s="26">
-        <f t="shared" ref="N11:S20" si="3">M11*8/100</f>
+      <c r="N11" s="17">
+        <f t="shared" ref="N11:N19" si="3">M11*8/100</f>
         <v>395200</v>
       </c>
-      <c r="O11" s="23">
-        <f t="shared" ref="O11:O20" si="4">M11*1.5/100</f>
+      <c r="O11" s="14">
+        <f t="shared" ref="O11:O19" si="4">M11*1.5/100</f>
         <v>74100</v>
       </c>
-      <c r="P11" s="26">
-        <f t="shared" ref="P11:P20" si="5">M11/100</f>
+      <c r="P11" s="17">
+        <f t="shared" ref="P11:P19" si="5">M11/100</f>
         <v>49400</v>
       </c>
-      <c r="Q11" s="26">
-        <f t="shared" ref="Q11:Q20" si="6">M11/100</f>
+      <c r="Q11" s="17">
+        <f t="shared" ref="Q11:Q19" si="6">M11/100</f>
         <v>49400</v>
       </c>
-      <c r="R11" s="26">
-        <f t="shared" ref="R11:R20" si="7">N11+O11+P11+Q11</f>
+      <c r="R11" s="17">
+        <f t="shared" ref="R11:R19" si="7">N11+O11+P11+Q11</f>
         <v>568100</v>
       </c>
-      <c r="S11" s="26">
-        <f t="shared" ref="S11:S20" si="8">M11-R11</f>
+      <c r="S11" s="17">
+        <f t="shared" ref="S11:S19" si="8">M11-R11</f>
         <v>4371900</v>
       </c>
-      <c r="T11" s="23"/>
-    </row>
-    <row r="12" spans="1:26" s="27" customFormat="1">
-      <c r="A12" s="23">
+      <c r="T11" s="14"/>
+    </row>
+    <row r="12" spans="1:26" s="18" customFormat="1">
+      <c r="A12" s="14">
         <v>3</v>
       </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23" t="s">
+      <c r="B12" s="14"/>
+      <c r="C12" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="F12" s="23">
+      <c r="E12" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="14">
         <f>3</f>
         <v>3</v>
       </c>
-      <c r="G12" s="23">
+      <c r="G12" s="14">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="H12" s="23">
+      <c r="H12" s="14">
         <f>0.3</f>
         <v>0.3</v>
       </c>
-      <c r="I12" s="23">
+      <c r="I12" s="14">
         <f t="shared" si="0"/>
         <v>3.3</v>
       </c>
-      <c r="J12" s="25">
+      <c r="J12" s="16">
         <f t="shared" si="1"/>
         <v>4290000</v>
       </c>
-      <c r="K12" s="25"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="26">
+      <c r="K12" s="16"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="17">
         <f t="shared" si="2"/>
         <v>4290000</v>
       </c>
-      <c r="N12" s="26">
+      <c r="N12" s="17">
         <f t="shared" si="3"/>
         <v>343200</v>
       </c>
-      <c r="O12" s="23">
+      <c r="O12" s="14">
         <f t="shared" si="4"/>
         <v>64350</v>
       </c>
-      <c r="P12" s="26">
+      <c r="P12" s="17">
         <f t="shared" si="5"/>
         <v>42900</v>
       </c>
-      <c r="Q12" s="26">
+      <c r="Q12" s="17">
         <f t="shared" si="6"/>
         <v>42900</v>
       </c>
-      <c r="R12" s="26">
+      <c r="R12" s="17">
         <f t="shared" si="7"/>
         <v>493350</v>
       </c>
-      <c r="S12" s="26">
+      <c r="S12" s="17">
         <f t="shared" si="8"/>
         <v>3796650</v>
       </c>
-      <c r="T12" s="23"/>
-    </row>
-    <row r="13" spans="1:26" s="27" customFormat="1">
-      <c r="A13" s="23">
+      <c r="T12" s="14"/>
+    </row>
+    <row r="13" spans="1:26" s="18" customFormat="1">
+      <c r="A13" s="14">
         <v>4</v>
       </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23" t="s">
+      <c r="B13" s="14"/>
+      <c r="C13" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="23" t="s">
+      <c r="D13" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="F13" s="23">
+      <c r="E13" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="14">
         <f>3</f>
         <v>3</v>
       </c>
-      <c r="G13" s="23">
+      <c r="G13" s="14">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="H13" s="23">
+      <c r="H13" s="14">
         <v>0</v>
       </c>
-      <c r="I13" s="23">
+      <c r="I13" s="14">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="J13" s="25">
+      <c r="J13" s="16">
         <f t="shared" si="1"/>
         <v>3900000</v>
       </c>
-      <c r="K13" s="25"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="26">
+      <c r="K13" s="16"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="17">
         <f t="shared" si="2"/>
         <v>3900000</v>
       </c>
-      <c r="N13" s="26">
+      <c r="N13" s="17">
         <f t="shared" si="3"/>
         <v>312000</v>
       </c>
-      <c r="O13" s="23">
+      <c r="O13" s="14">
         <f t="shared" si="4"/>
         <v>58500</v>
       </c>
-      <c r="P13" s="26">
+      <c r="P13" s="17">
         <f t="shared" si="5"/>
         <v>39000</v>
       </c>
-      <c r="Q13" s="26">
+      <c r="Q13" s="17">
         <f t="shared" si="6"/>
         <v>39000</v>
       </c>
-      <c r="R13" s="26">
+      <c r="R13" s="17">
         <f t="shared" si="7"/>
         <v>448500</v>
       </c>
-      <c r="S13" s="26">
+      <c r="S13" s="17">
         <f t="shared" si="8"/>
         <v>3451500</v>
       </c>
-      <c r="T13" s="23"/>
-    </row>
-    <row r="14" spans="1:26" s="27" customFormat="1">
-      <c r="A14" s="23">
+      <c r="T13" s="14"/>
+    </row>
+    <row r="14" spans="1:26" s="18" customFormat="1">
+      <c r="A14" s="14">
         <v>5</v>
       </c>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23" t="s">
+      <c r="B14" s="14"/>
+      <c r="C14" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="23" t="s">
+      <c r="D14" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="F14" s="23">
+      <c r="E14" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="14">
         <f>3</f>
         <v>3</v>
       </c>
-      <c r="G14" s="23">
+      <c r="G14" s="14">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="H14" s="23">
+      <c r="H14" s="14">
         <v>0</v>
       </c>
-      <c r="I14" s="23">
+      <c r="I14" s="14">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="J14" s="25">
+      <c r="J14" s="16">
         <f t="shared" si="1"/>
         <v>3900000</v>
       </c>
-      <c r="K14" s="25"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="26">
+      <c r="K14" s="16"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="17">
         <f t="shared" si="2"/>
         <v>3900000</v>
       </c>
-      <c r="N14" s="26">
+      <c r="N14" s="17">
         <f t="shared" si="3"/>
         <v>312000</v>
       </c>
-      <c r="O14" s="23">
+      <c r="O14" s="14">
         <f t="shared" si="4"/>
         <v>58500</v>
       </c>
-      <c r="P14" s="26">
+      <c r="P14" s="17">
         <f t="shared" si="5"/>
         <v>39000</v>
       </c>
-      <c r="Q14" s="26">
+      <c r="Q14" s="17">
         <f t="shared" si="6"/>
         <v>39000</v>
       </c>
-      <c r="R14" s="26">
+      <c r="R14" s="17">
         <f t="shared" si="7"/>
         <v>448500</v>
       </c>
-      <c r="S14" s="26">
+      <c r="S14" s="17">
         <f t="shared" si="8"/>
         <v>3451500</v>
       </c>
-      <c r="T14" s="23"/>
-    </row>
-    <row r="15" spans="1:26" s="27" customFormat="1">
-      <c r="A15" s="23">
+      <c r="T14" s="14"/>
+    </row>
+    <row r="15" spans="1:26" s="18" customFormat="1">
+      <c r="A15" s="14">
         <v>6</v>
       </c>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23" t="s">
+      <c r="B15" s="14"/>
+      <c r="C15" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="23" t="s">
+      <c r="D15" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="F15" s="23">
+      <c r="E15" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="14">
         <f>3</f>
         <v>3</v>
       </c>
-      <c r="G15" s="23">
+      <c r="G15" s="14">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="H15" s="23">
+      <c r="H15" s="14">
         <v>0</v>
       </c>
-      <c r="I15" s="23">
+      <c r="I15" s="14">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="J15" s="25">
+      <c r="J15" s="16">
         <f t="shared" si="1"/>
         <v>3900000</v>
       </c>
-      <c r="K15" s="25"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="26">
+      <c r="K15" s="16"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="17">
         <f t="shared" si="2"/>
         <v>3900000</v>
       </c>
-      <c r="N15" s="26">
+      <c r="N15" s="17">
         <f t="shared" si="3"/>
         <v>312000</v>
       </c>
-      <c r="O15" s="23">
+      <c r="O15" s="14">
         <f t="shared" si="4"/>
         <v>58500</v>
       </c>
-      <c r="P15" s="26">
+      <c r="P15" s="17">
         <f t="shared" si="5"/>
         <v>39000</v>
       </c>
-      <c r="Q15" s="26">
+      <c r="Q15" s="17">
         <f t="shared" si="6"/>
         <v>39000</v>
       </c>
-      <c r="R15" s="26">
+      <c r="R15" s="17">
         <f t="shared" si="7"/>
         <v>448500</v>
       </c>
-      <c r="S15" s="26">
+      <c r="S15" s="17">
         <f t="shared" si="8"/>
         <v>3451500</v>
       </c>
-      <c r="T15" s="23"/>
-    </row>
-    <row r="16" spans="1:26" s="27" customFormat="1">
-      <c r="A16" s="23">
+      <c r="T15" s="14"/>
+    </row>
+    <row r="16" spans="1:26" s="18" customFormat="1">
+      <c r="A16" s="14">
         <v>7</v>
       </c>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23" t="s">
+      <c r="B16" s="14"/>
+      <c r="C16" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="23" t="s">
+      <c r="D16" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="E16" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="F16" s="23">
+      <c r="E16" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" s="14">
         <f>3</f>
         <v>3</v>
       </c>
-      <c r="G16" s="23">
+      <c r="G16" s="14">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="H16" s="23">
+      <c r="H16" s="14">
         <v>0</v>
       </c>
-      <c r="I16" s="23">
+      <c r="I16" s="14">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="J16" s="25">
+      <c r="J16" s="16">
         <f t="shared" si="1"/>
         <v>3900000</v>
       </c>
-      <c r="K16" s="25"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="26">
+      <c r="K16" s="16"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="17">
         <f t="shared" si="2"/>
         <v>3900000</v>
       </c>
-      <c r="N16" s="26">
+      <c r="N16" s="17">
         <f t="shared" si="3"/>
         <v>312000</v>
       </c>
-      <c r="O16" s="23">
+      <c r="O16" s="14">
         <f t="shared" si="4"/>
         <v>58500</v>
       </c>
-      <c r="P16" s="26">
+      <c r="P16" s="17">
         <f t="shared" si="5"/>
         <v>39000</v>
       </c>
-      <c r="Q16" s="26">
+      <c r="Q16" s="17">
         <f t="shared" si="6"/>
         <v>39000</v>
       </c>
-      <c r="R16" s="26">
+      <c r="R16" s="17">
         <f t="shared" si="7"/>
         <v>448500</v>
       </c>
-      <c r="S16" s="26">
+      <c r="S16" s="17">
         <f t="shared" si="8"/>
         <v>3451500</v>
       </c>
-      <c r="T16" s="23"/>
-    </row>
-    <row r="17" spans="1:21" s="27" customFormat="1">
-      <c r="A17" s="23">
+      <c r="T16" s="14"/>
+    </row>
+    <row r="17" spans="1:21" s="18" customFormat="1">
+      <c r="A17" s="14">
         <v>8</v>
       </c>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23" t="s">
+      <c r="B17" s="14"/>
+      <c r="C17" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="23" t="s">
+      <c r="D17" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="E17" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="F17" s="23">
+      <c r="E17" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="14">
         <f>3</f>
         <v>3</v>
       </c>
-      <c r="G17" s="23">
+      <c r="G17" s="14">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="H17" s="23">
+      <c r="H17" s="14">
         <v>0</v>
       </c>
-      <c r="I17" s="23">
+      <c r="I17" s="14">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="J17" s="25">
+      <c r="J17" s="16">
         <f t="shared" si="1"/>
         <v>3900000</v>
       </c>
-      <c r="K17" s="25"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="26">
+      <c r="K17" s="16"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="17">
         <f t="shared" si="2"/>
         <v>3900000</v>
       </c>
-      <c r="N17" s="26">
+      <c r="N17" s="17">
         <f t="shared" si="3"/>
         <v>312000</v>
       </c>
-      <c r="O17" s="23">
+      <c r="O17" s="14">
         <f t="shared" si="4"/>
         <v>58500</v>
       </c>
-      <c r="P17" s="26">
+      <c r="P17" s="17">
         <f t="shared" si="5"/>
         <v>39000</v>
       </c>
-      <c r="Q17" s="26">
+      <c r="Q17" s="17">
         <f t="shared" si="6"/>
         <v>39000</v>
       </c>
-      <c r="R17" s="26">
+      <c r="R17" s="17">
         <f t="shared" si="7"/>
         <v>448500</v>
       </c>
-      <c r="S17" s="26">
+      <c r="S17" s="17">
         <f t="shared" si="8"/>
         <v>3451500</v>
       </c>
-      <c r="T17" s="23"/>
-    </row>
-    <row r="18" spans="1:21" s="27" customFormat="1">
-      <c r="A18" s="23">
+      <c r="T17" s="14"/>
+    </row>
+    <row r="18" spans="1:21" s="18" customFormat="1">
+      <c r="A18" s="14">
         <v>9</v>
       </c>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23" t="s">
+      <c r="B18" s="14"/>
+      <c r="C18" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="23" t="s">
+      <c r="D18" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="F18" s="23">
+      <c r="E18" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" s="14">
         <f>3</f>
         <v>3</v>
       </c>
-      <c r="G18" s="23">
+      <c r="G18" s="14">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="H18" s="23">
+      <c r="H18" s="14">
         <v>0</v>
       </c>
-      <c r="I18" s="23">
+      <c r="I18" s="14">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="J18" s="25">
+      <c r="J18" s="16">
         <f t="shared" si="1"/>
         <v>3900000</v>
       </c>
-      <c r="K18" s="25"/>
-      <c r="L18" s="23"/>
-      <c r="M18" s="26">
+      <c r="K18" s="16"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="17">
         <f t="shared" si="2"/>
         <v>3900000</v>
       </c>
-      <c r="N18" s="26">
+      <c r="N18" s="17">
         <f t="shared" si="3"/>
         <v>312000</v>
       </c>
-      <c r="O18" s="23">
+      <c r="O18" s="14">
         <f t="shared" si="4"/>
         <v>58500</v>
       </c>
-      <c r="P18" s="26">
+      <c r="P18" s="17">
         <f t="shared" si="5"/>
         <v>39000</v>
       </c>
-      <c r="Q18" s="26">
+      <c r="Q18" s="17">
         <f t="shared" si="6"/>
         <v>39000</v>
       </c>
-      <c r="R18" s="26">
+      <c r="R18" s="17">
         <f t="shared" si="7"/>
         <v>448500</v>
       </c>
-      <c r="S18" s="26">
+      <c r="S18" s="17">
         <f t="shared" si="8"/>
         <v>3451500</v>
       </c>
-      <c r="T18" s="23"/>
-    </row>
-    <row r="19" spans="1:21" s="27" customFormat="1">
-      <c r="A19" s="23">
+      <c r="T18" s="14"/>
+    </row>
+    <row r="19" spans="1:21" s="18" customFormat="1">
+      <c r="A19" s="14">
         <v>10</v>
       </c>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23" t="s">
+      <c r="B19" s="14"/>
+      <c r="C19" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="23" t="s">
+      <c r="D19" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="E19" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="F19" s="23">
+      <c r="E19" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" s="14">
         <f>3</f>
         <v>3</v>
       </c>
-      <c r="G19" s="23">
+      <c r="G19" s="14">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="H19" s="23">
+      <c r="H19" s="14">
         <v>0</v>
       </c>
-      <c r="I19" s="23">
+      <c r="I19" s="14">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="J19" s="25">
+      <c r="J19" s="16">
         <f t="shared" si="1"/>
         <v>3900000</v>
       </c>
-      <c r="K19" s="25"/>
-      <c r="L19" s="23"/>
-      <c r="M19" s="26">
+      <c r="K19" s="16"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="17">
         <f t="shared" si="2"/>
         <v>3900000</v>
       </c>
-      <c r="N19" s="26">
+      <c r="N19" s="17">
         <f t="shared" si="3"/>
         <v>312000</v>
       </c>
-      <c r="O19" s="23">
+      <c r="O19" s="14">
         <f t="shared" si="4"/>
         <v>58500</v>
       </c>
-      <c r="P19" s="26">
+      <c r="P19" s="17">
         <f t="shared" si="5"/>
         <v>39000</v>
       </c>
-      <c r="Q19" s="26">
+      <c r="Q19" s="17">
         <f t="shared" si="6"/>
         <v>39000</v>
       </c>
-      <c r="R19" s="26">
+      <c r="R19" s="17">
         <f t="shared" si="7"/>
         <v>448500</v>
       </c>
-      <c r="S19" s="26">
+      <c r="S19" s="17">
         <f t="shared" si="8"/>
         <v>3451500</v>
       </c>
-      <c r="T19" s="23"/>
-    </row>
-    <row r="20" spans="1:21" s="27" customFormat="1">
-      <c r="A20" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="B20" s="30"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="33">
+      <c r="T19" s="14"/>
+    </row>
+    <row r="20" spans="1:21" s="18" customFormat="1">
+      <c r="A20" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="24"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="21">
         <f>SUM(J10:J19)</f>
         <v>43290000</v>
       </c>
-      <c r="K20" s="33">
+      <c r="K20" s="21">
         <f t="shared" ref="K20:S20" si="9">SUM(K10:K19)</f>
         <v>500000</v>
       </c>
-      <c r="L20" s="33">
+      <c r="L20" s="21">
         <f t="shared" si="9"/>
         <v>400000</v>
       </c>
-      <c r="M20" s="33">
+      <c r="M20" s="21">
         <f t="shared" si="9"/>
         <v>43190000</v>
       </c>
-      <c r="N20" s="33">
+      <c r="N20" s="21">
         <f t="shared" si="9"/>
         <v>3455200</v>
       </c>
-      <c r="O20" s="33">
+      <c r="O20" s="21">
         <f t="shared" si="9"/>
         <v>647850</v>
       </c>
-      <c r="P20" s="33">
+      <c r="P20" s="21">
         <f t="shared" si="9"/>
         <v>431900</v>
       </c>
-      <c r="Q20" s="33">
+      <c r="Q20" s="21">
         <f t="shared" si="9"/>
         <v>431900</v>
       </c>
-      <c r="R20" s="33">
+      <c r="R20" s="21">
         <f t="shared" si="9"/>
         <v>4966850</v>
       </c>
-      <c r="S20" s="33">
+      <c r="S20" s="21">
         <f t="shared" si="9"/>
         <v>38223150</v>
       </c>
-      <c r="T20" s="32"/>
-      <c r="U20" s="34"/>
+      <c r="T20" s="20"/>
+      <c r="U20" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:J8"/>
     <mergeCell ref="A20:C20"/>
     <mergeCell ref="A5:T5"/>
     <mergeCell ref="A6:T6"/>
@@ -1778,11 +1783,6 @@
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="M8:M9"/>
     <mergeCell ref="K8:K9"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:J8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
